--- a/Информация о проходах/Кургузова Елена Викторовна.xlsx
+++ b/Информация о проходах/Кургузова Елена Викторовна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +439,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-12 14:44:01</t>
+          <t>2024-06-10 07:33:35</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-12 20:42:29</t>
+          <t>2024-06-10 19:59:53</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-05-13 07:34:31</t>
+          <t>2024-06-11 07:47:15</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-05-13 17:09:40</t>
+          <t>2024-06-11 19:59:37</t>
         </is>
       </c>
     </row>
@@ -567,17 +567,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-05-14 17:37:27</t>
+          <t>2024-06-12 07:46:14</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-05-15 17:07:27</t>
+          <t>2024-06-12 17:01:05</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-05-16 07:46:09</t>
+          <t>2024-06-13 07:45:13</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-05-16 17:07:44</t>
+          <t>2024-06-13 17:00:33</t>
         </is>
       </c>
     </row>
@@ -695,17 +695,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-05-16 17:07:47</t>
+          <t>2024-06-14 07:31:57</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-05-17 07:31:01</t>
+          <t>2024-06-14 17:14:48</t>
         </is>
       </c>
     </row>
@@ -759,17 +759,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-05-17 19:56:47</t>
+          <t>2024-06-17 07:31:57</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-05-18 07:38:27</t>
+          <t>2024-06-17 17:01:43</t>
         </is>
       </c>
     </row>
@@ -823,17 +823,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-05-18 16:57:51</t>
+          <t>2024-06-18 07:20:17</t>
         </is>
       </c>
     </row>
@@ -855,17 +855,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-05-20 07:37:53</t>
+          <t>2024-06-18 20:00:06</t>
         </is>
       </c>
     </row>
@@ -887,17 +887,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-05-20 17:10:32</t>
+          <t>2024-06-19 07:47:55</t>
         </is>
       </c>
     </row>
@@ -919,17 +919,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-05-21 07:33:23</t>
+          <t>2024-06-19 20:02:57</t>
         </is>
       </c>
     </row>
@@ -951,17 +951,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-05-21 19:57:31</t>
+          <t>2024-06-20 07:28:48</t>
         </is>
       </c>
     </row>
@@ -983,17 +983,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-05-22 07:47:56</t>
+          <t>2024-06-20 19:58:07</t>
         </is>
       </c>
     </row>
@@ -1015,17 +1015,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-05-22 19:58:46</t>
+          <t>2024-06-21 07:31:53</t>
         </is>
       </c>
     </row>
@@ -1047,17 +1047,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-05-23 07:45:29</t>
+          <t>2024-06-21 19:57:29</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1079,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-05-23 17:04:38</t>
+          <t>2024-06-22 07:43:09</t>
         </is>
       </c>
     </row>
@@ -1111,17 +1111,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-05-24 07:44:13</t>
+          <t>2024-06-22 16:56:58</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024-05-24 07:44:14</t>
+          <t>2024-06-24 07:29:06</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-05-24 17:01:41</t>
+          <t>2024-06-24 19:57:39</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024-05-25 07:31:47</t>
+          <t>2024-06-25 07:44:15</t>
         </is>
       </c>
     </row>
@@ -1239,17 +1239,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024-05-27 07:46:06</t>
+          <t>2024-06-25 19:56:21</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1271,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024-05-27 17:00:42</t>
+          <t>2024-06-26 07:45:07</t>
         </is>
       </c>
     </row>
@@ -1303,17 +1303,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2024-05-28 07:32:27</t>
+          <t>2024-06-26 17:01:54</t>
         </is>
       </c>
     </row>
@@ -1335,17 +1335,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2024-05-28 10:51:58</t>
+          <t>2024-06-27 07:32:11</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2024-05-28 10:52:00</t>
+          <t>2024-06-27 19:56:44</t>
         </is>
       </c>
     </row>
@@ -1399,17 +1399,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2024-05-28 17:00:30</t>
+          <t>2024-06-28 07:31:26</t>
         </is>
       </c>
     </row>
@@ -1431,17 +1431,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2024-05-29 07:44:06</t>
+          <t>2024-06-28 16:58:10</t>
         </is>
       </c>
     </row>
@@ -1463,17 +1463,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2024-05-29 17:01:09</t>
+          <t>2024-07-01 07:46:29</t>
         </is>
       </c>
     </row>
@@ -1495,17 +1495,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2024-05-30 07:47:01</t>
+          <t>2024-07-01 19:58:32</t>
         </is>
       </c>
     </row>
@@ -1527,17 +1527,81 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:12</t>
+          <t>2024-07-02 07:45:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Кургузова Елена Викторовна</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Старший мастер участка</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2024-07-02 17:00:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Кургузова Елена Викторовна</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Старший мастер участка</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2024-07-03 07:32:11</t>
         </is>
       </c>
     </row>
